--- a/src/output/results4.xlsx
+++ b/src/output/results4.xlsx
@@ -336,7 +336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B365"/>
+  <dimension ref="A1:E365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -346,498 +346,1056 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>5095.0</v>
+        <v>0.0</v>
       </c>
       <c r="B1" t="n">
-        <v>1231.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5108.0</v>
+        <v>0.0</v>
       </c>
       <c r="B2" t="n">
-        <v>1160.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4618.0</v>
+        <v>0.0</v>
       </c>
       <c r="B3" t="n">
-        <v>1370.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4030.0</v>
+        <v>1.0</v>
       </c>
       <c r="B4" t="n">
-        <v>1922.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3759.0</v>
+        <v>2.0</v>
       </c>
       <c r="B5" t="n">
-        <v>1997.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3402.0</v>
+        <v>3.0</v>
       </c>
       <c r="B6" t="n">
-        <v>1879.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3304.0</v>
+        <v>5.0</v>
       </c>
       <c r="B7" t="n">
-        <v>1698.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3066.0</v>
+        <v>12.0</v>
       </c>
       <c r="B8" t="n">
-        <v>1586.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3008.0</v>
+        <v>17.0</v>
       </c>
       <c r="B9" t="n">
-        <v>1456.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2930.0</v>
+        <v>25.0</v>
       </c>
       <c r="B10" t="n">
-        <v>1440.0</v>
+        <v>24.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2993.0</v>
+        <v>34.0</v>
       </c>
       <c r="B11" t="n">
-        <v>1397.0</v>
+        <v>33.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2851.0</v>
+        <v>38.0</v>
       </c>
       <c r="B12" t="n">
-        <v>1250.0</v>
+        <v>37.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2776.0</v>
+        <v>48.0</v>
       </c>
       <c r="B13" t="n">
-        <v>1271.0</v>
+        <v>47.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2733.0</v>
+        <v>56.0</v>
       </c>
       <c r="B14" t="n">
-        <v>1320.0</v>
+        <v>55.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2727.0</v>
+        <v>63.0</v>
       </c>
       <c r="B15" t="n">
-        <v>1318.0</v>
+        <v>61.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2619.0</v>
+        <v>77.0</v>
       </c>
       <c r="B16" t="n">
-        <v>1177.0</v>
+        <v>73.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2580.0</v>
+        <v>90.0</v>
       </c>
       <c r="B17" t="n">
-        <v>1222.0</v>
+        <v>84.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2530.0</v>
+        <v>106.0</v>
       </c>
       <c r="B18" t="n">
-        <v>1153.0</v>
+        <v>95.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2537.0</v>
+        <v>121.0</v>
       </c>
       <c r="B19" t="n">
-        <v>1163.0</v>
+        <v>106.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2618.0</v>
+        <v>146.0</v>
       </c>
       <c r="B20" t="n">
-        <v>1114.0</v>
+        <v>125.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2541.0</v>
+        <v>166.0</v>
       </c>
       <c r="B21" t="n">
-        <v>1096.0</v>
+        <v>138.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2540.0</v>
+        <v>194.0</v>
       </c>
       <c r="B22" t="n">
-        <v>1112.0</v>
+        <v>163.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2556.0</v>
+        <v>218.0</v>
       </c>
       <c r="B23" t="n">
-        <v>1097.0</v>
+        <v>178.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2509.0</v>
+        <v>242.0</v>
       </c>
       <c r="B24" t="n">
-        <v>1087.0</v>
+        <v>193.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2541.0</v>
+        <v>272.0</v>
       </c>
       <c r="B25" t="n">
-        <v>1113.0</v>
+        <v>214.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2421.0</v>
+        <v>300.0</v>
       </c>
       <c r="B26" t="n">
-        <v>1084.0</v>
+        <v>235.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>65.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2637.0</v>
+        <v>333.0</v>
       </c>
       <c r="B27" t="n">
-        <v>1105.0</v>
+        <v>249.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>84.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2547.0</v>
+        <v>361.0</v>
       </c>
       <c r="B28" t="n">
-        <v>1052.0</v>
+        <v>264.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>97.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2543.0</v>
+        <v>397.0</v>
       </c>
       <c r="B29" t="n">
-        <v>1092.0</v>
+        <v>294.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>103.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2475.0</v>
+        <v>437.0</v>
       </c>
       <c r="B30" t="n">
-        <v>1060.0</v>
+        <v>317.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>120.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2517.0</v>
+        <v>472.0</v>
       </c>
       <c r="B31" t="n">
-        <v>1080.0</v>
+        <v>335.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>136.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3071.0</v>
+        <v>516.0</v>
       </c>
       <c r="B32" t="n">
-        <v>1076.0</v>
+        <v>361.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>154.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3130.0</v>
+        <v>563.0</v>
       </c>
       <c r="B33" t="n">
-        <v>1078.0</v>
+        <v>387.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>174.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3091.0</v>
+        <v>622.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1187.0</v>
+        <v>419.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>201.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2916.0</v>
+        <v>681.0</v>
       </c>
       <c r="B35" t="n">
-        <v>1296.0</v>
+        <v>454.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>224.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4094.0</v>
+        <v>740.0</v>
       </c>
       <c r="B36" t="n">
-        <v>1276.0</v>
+        <v>483.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>253.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4113.0</v>
+        <v>802.0</v>
       </c>
       <c r="B37" t="n">
-        <v>1273.0</v>
+        <v>520.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>277.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4436.0</v>
+        <v>886.0</v>
       </c>
       <c r="B38" t="n">
-        <v>1523.0</v>
+        <v>575.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>306.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5081.0</v>
+        <v>961.0</v>
       </c>
       <c r="B39" t="n">
-        <v>1689.0</v>
+        <v>619.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>335.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5483.0</v>
+        <v>1053.0</v>
       </c>
       <c r="B40" t="n">
-        <v>1853.0</v>
+        <v>683.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>361.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4951.0</v>
+        <v>1142.0</v>
       </c>
       <c r="B41" t="n">
-        <v>1961.0</v>
+        <v>733.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>400.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4799.0</v>
+        <v>1233.0</v>
       </c>
       <c r="B42" t="n">
-        <v>2245.0</v>
+        <v>796.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>427.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6633.0</v>
+        <v>1357.0</v>
       </c>
       <c r="B43" t="n">
-        <v>2302.0</v>
+        <v>878.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>466.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6383.0</v>
+        <v>1499.0</v>
       </c>
       <c r="B44" t="n">
-        <v>2245.0</v>
+        <v>962.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>524.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6840.0</v>
+        <v>1625.0</v>
       </c>
       <c r="B45" t="n">
-        <v>2463.0</v>
+        <v>1053.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>557.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7449.0</v>
+        <v>1789.0</v>
       </c>
       <c r="B46" t="n">
-        <v>2741.0</v>
+        <v>1161.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>613.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>8082.0</v>
+        <v>1978.0</v>
       </c>
       <c r="B47" t="n">
-        <v>2913.0</v>
+        <v>1286.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>676.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>7366.0</v>
+        <v>2175.0</v>
       </c>
       <c r="B48" t="n">
-        <v>3059.0</v>
+        <v>1405.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>753.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6809.0</v>
+        <v>2401.0</v>
       </c>
       <c r="B49" t="n">
-        <v>3366.0</v>
+        <v>1558.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>825.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>9647.0</v>
+        <v>2634.0</v>
       </c>
       <c r="B50" t="n">
-        <v>3428.0</v>
+        <v>1720.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>893.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>8756.0</v>
+        <v>2909.0</v>
       </c>
       <c r="B51" t="n">
-        <v>3419.0</v>
+        <v>1913.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>275.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>973.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9243.0</v>
+        <v>3186.0</v>
       </c>
       <c r="B52" t="n">
-        <v>3534.0</v>
+        <v>2093.0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>277.0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1068.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>10120.0</v>
+        <v>3487.0</v>
       </c>
       <c r="B53" t="n">
-        <v>3829.0</v>
+        <v>2281.0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>301.0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1179.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>10975.0</v>
+        <v>3801.0</v>
       </c>
       <c r="B54" t="n">
-        <v>3988.0</v>
+        <v>2485.0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>314.0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1289.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9564.0</v>
+        <v>4136.0</v>
       </c>
       <c r="B55" t="n">
-        <v>4213.0</v>
+        <v>2706.0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>335.0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1400.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>9116.0</v>
+        <v>4558.0</v>
       </c>
       <c r="B56" t="n">
-        <v>4527.0</v>
+        <v>2978.0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>422.0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1548.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>12853.0</v>
+        <v>4921.0</v>
       </c>
       <c r="B57" t="n">
-        <v>4932.0</v>
+        <v>3171.0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>363.0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1716.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>11019.0</v>
+        <v>5340.0</v>
       </c>
       <c r="B58" t="n">
-        <v>4471.0</v>
+        <v>3432.0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>419.0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1867.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>11885.0</v>
+        <v>5769.0</v>
       </c>
       <c r="B59" t="n">
-        <v>4768.0</v>
+        <v>3668.0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>429.0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2056.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>12767.0</v>
+        <v>6267.0</v>
       </c>
       <c r="B60" t="n">
-        <v>5084.0</v>
+        <v>3947.0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>498.0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2273.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>13329.0</v>
+        <v>6788.0</v>
       </c>
       <c r="B61" t="n">
-        <v>5107.0</v>
+        <v>4286.0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>521.0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2451.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>11720.0</v>
+        <v>7326.0</v>
       </c>
       <c r="B62" t="n">
-        <v>5281.0</v>
+        <v>4572.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>538.0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2698.0</v>
       </c>
     </row>
     <row r="63">

--- a/src/output/results4.xlsx
+++ b/src/output/results4.xlsx
@@ -346,13 +346,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.0</v>
+        <v>82.0</v>
       </c>
       <c r="B1" t="n">
-        <v>0.0</v>
+        <v>82.0</v>
       </c>
       <c r="C1" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D1" t="n">
         <v>0.0</v>
@@ -363,13 +363,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0</v>
+        <v>86.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0</v>
+        <v>86.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="D2" t="n">
         <v>0.0</v>
@@ -380,13 +380,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0</v>
+        <v>87.0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0</v>
+        <v>87.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
@@ -397,13 +397,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.0</v>
+        <v>89.0</v>
       </c>
       <c r="B4" t="n">
-        <v>1.0</v>
+        <v>89.0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
@@ -414,13 +414,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.0</v>
+        <v>100.0</v>
       </c>
       <c r="B5" t="n">
-        <v>2.0</v>
+        <v>100.0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
@@ -431,13 +431,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.0</v>
+        <v>111.0</v>
       </c>
       <c r="B6" t="n">
-        <v>3.0</v>
+        <v>111.0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="D6" t="n">
         <v>0.0</v>
@@ -448,13 +448,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10.0</v>
+        <v>122.0</v>
       </c>
       <c r="B7" t="n">
-        <v>10.0</v>
+        <v>122.0</v>
       </c>
       <c r="C7" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="D7" t="n">
         <v>0.0</v>
@@ -465,13 +465,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>16.0</v>
+        <v>132.0</v>
       </c>
       <c r="B8" t="n">
-        <v>16.0</v>
+        <v>132.0</v>
       </c>
       <c r="C8" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="D8" t="n">
         <v>0.0</v>
@@ -482,13 +482,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>22.0</v>
+        <v>144.0</v>
       </c>
       <c r="B9" t="n">
-        <v>22.0</v>
+        <v>144.0</v>
       </c>
       <c r="C9" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="D9" t="n">
         <v>0.0</v>
@@ -499,13 +499,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>28.0</v>
+        <v>165.0</v>
       </c>
       <c r="B10" t="n">
-        <v>28.0</v>
+        <v>165.0</v>
       </c>
       <c r="C10" t="n">
-        <v>6.0</v>
+        <v>21.0</v>
       </c>
       <c r="D10" t="n">
         <v>0.0</v>
@@ -516,13 +516,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>36.0</v>
+        <v>175.0</v>
       </c>
       <c r="B11" t="n">
-        <v>36.0</v>
+        <v>175.0</v>
       </c>
       <c r="C11" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="D11" t="n">
         <v>0.0</v>
@@ -533,869 +533,869 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>47.0</v>
+        <v>192.0</v>
       </c>
       <c r="B12" t="n">
-        <v>47.0</v>
+        <v>191.0</v>
       </c>
       <c r="C12" t="n">
-        <v>11.0</v>
+        <v>17.0</v>
       </c>
       <c r="D12" t="n">
         <v>0.0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>60.0</v>
+        <v>219.0</v>
       </c>
       <c r="B13" t="n">
-        <v>59.0</v>
+        <v>217.0</v>
       </c>
       <c r="C13" t="n">
-        <v>13.0</v>
+        <v>27.0</v>
       </c>
       <c r="D13" t="n">
         <v>0.0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>72.0</v>
+        <v>253.0</v>
       </c>
       <c r="B14" t="n">
-        <v>69.0</v>
+        <v>248.0</v>
       </c>
       <c r="C14" t="n">
-        <v>12.0</v>
+        <v>34.0</v>
       </c>
       <c r="D14" t="n">
         <v>0.0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>86.0</v>
+        <v>291.0</v>
       </c>
       <c r="B15" t="n">
-        <v>83.0</v>
+        <v>282.0</v>
       </c>
       <c r="C15" t="n">
-        <v>14.0</v>
+        <v>38.0</v>
       </c>
       <c r="D15" t="n">
         <v>0.0</v>
       </c>
       <c r="E15" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>105.0</v>
+        <v>333.0</v>
       </c>
       <c r="B16" t="n">
-        <v>101.0</v>
+        <v>321.0</v>
       </c>
       <c r="C16" t="n">
-        <v>19.0</v>
+        <v>42.0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E16" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>127.0</v>
+        <v>379.0</v>
       </c>
       <c r="B17" t="n">
-        <v>119.0</v>
+        <v>359.0</v>
       </c>
       <c r="C17" t="n">
-        <v>22.0</v>
+        <v>46.0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E17" t="n">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>147.0</v>
+        <v>419.0</v>
       </c>
       <c r="B18" t="n">
-        <v>136.0</v>
+        <v>386.0</v>
       </c>
       <c r="C18" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E18" t="n">
-        <v>11.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>178.0</v>
+        <v>474.0</v>
       </c>
       <c r="B19" t="n">
-        <v>162.0</v>
+        <v>431.0</v>
       </c>
       <c r="C19" t="n">
-        <v>31.0</v>
+        <v>55.0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E19" t="n">
-        <v>16.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>214.0</v>
+        <v>545.0</v>
       </c>
       <c r="B20" t="n">
-        <v>193.0</v>
+        <v>491.0</v>
       </c>
       <c r="C20" t="n">
-        <v>36.0</v>
+        <v>71.0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E20" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>257.0</v>
+        <v>607.0</v>
       </c>
       <c r="B21" t="n">
-        <v>232.0</v>
+        <v>541.0</v>
       </c>
       <c r="C21" t="n">
-        <v>43.0</v>
+        <v>62.0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E21" t="n">
-        <v>24.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>307.0</v>
+        <v>709.0</v>
       </c>
       <c r="B22" t="n">
-        <v>278.0</v>
+        <v>625.0</v>
       </c>
       <c r="C22" t="n">
-        <v>50.0</v>
+        <v>102.0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E22" t="n">
-        <v>28.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>364.0</v>
+        <v>820.0</v>
       </c>
       <c r="B23" t="n">
-        <v>321.0</v>
+        <v>717.0</v>
       </c>
       <c r="C23" t="n">
-        <v>57.0</v>
+        <v>111.0</v>
       </c>
       <c r="D23" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E23" t="n">
-        <v>41.0</v>
+        <v>97.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>423.0</v>
+        <v>906.0</v>
       </c>
       <c r="B24" t="n">
-        <v>363.0</v>
+        <v>776.0</v>
       </c>
       <c r="C24" t="n">
-        <v>59.0</v>
+        <v>86.0</v>
       </c>
       <c r="D24" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="E24" t="n">
-        <v>57.0</v>
+        <v>122.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>498.0</v>
+        <v>1012.0</v>
       </c>
       <c r="B25" t="n">
-        <v>421.0</v>
+        <v>859.0</v>
       </c>
       <c r="C25" t="n">
-        <v>75.0</v>
+        <v>106.0</v>
       </c>
       <c r="D25" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="E25" t="n">
-        <v>74.0</v>
+        <v>142.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>584.0</v>
+        <v>1132.0</v>
       </c>
       <c r="B26" t="n">
-        <v>486.0</v>
+        <v>958.0</v>
       </c>
       <c r="C26" t="n">
-        <v>86.0</v>
+        <v>120.0</v>
       </c>
       <c r="D26" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="E26" t="n">
-        <v>94.0</v>
+        <v>163.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>668.0</v>
+        <v>1239.0</v>
       </c>
       <c r="B27" t="n">
-        <v>554.0</v>
+        <v>1023.0</v>
       </c>
       <c r="C27" t="n">
-        <v>84.0</v>
+        <v>107.0</v>
       </c>
       <c r="D27" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="E27" t="n">
-        <v>110.0</v>
+        <v>205.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>766.0</v>
+        <v>1371.0</v>
       </c>
       <c r="B28" t="n">
-        <v>633.0</v>
+        <v>1115.0</v>
       </c>
       <c r="C28" t="n">
-        <v>98.0</v>
+        <v>132.0</v>
       </c>
       <c r="D28" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="E28" t="n">
-        <v>129.0</v>
+        <v>245.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>870.0</v>
+        <v>1505.0</v>
       </c>
       <c r="B29" t="n">
-        <v>713.0</v>
+        <v>1207.0</v>
       </c>
       <c r="C29" t="n">
-        <v>104.0</v>
+        <v>134.0</v>
       </c>
       <c r="D29" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="E29" t="n">
-        <v>153.0</v>
+        <v>287.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>995.0</v>
+        <v>1638.0</v>
       </c>
       <c r="B30" t="n">
-        <v>802.0</v>
+        <v>1303.0</v>
       </c>
       <c r="C30" t="n">
-        <v>125.0</v>
+        <v>133.0</v>
       </c>
       <c r="D30" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="E30" t="n">
-        <v>189.0</v>
+        <v>323.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1121.0</v>
+        <v>1795.0</v>
       </c>
       <c r="B31" t="n">
-        <v>891.0</v>
+        <v>1402.0</v>
       </c>
       <c r="C31" t="n">
-        <v>126.0</v>
+        <v>157.0</v>
       </c>
       <c r="D31" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="E31" t="n">
-        <v>225.0</v>
+        <v>381.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1261.0</v>
+        <v>1945.0</v>
       </c>
       <c r="B32" t="n">
-        <v>990.0</v>
+        <v>1481.0</v>
       </c>
       <c r="C32" t="n">
-        <v>140.0</v>
+        <v>150.0</v>
       </c>
       <c r="D32" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="E32" t="n">
-        <v>264.0</v>
+        <v>451.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1432.0</v>
+        <v>2124.0</v>
       </c>
       <c r="B33" t="n">
-        <v>1115.0</v>
+        <v>1600.0</v>
       </c>
       <c r="C33" t="n">
-        <v>171.0</v>
+        <v>179.0</v>
       </c>
       <c r="D33" t="n">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="E33" t="n">
-        <v>309.0</v>
+        <v>510.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1637.0</v>
+        <v>2301.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1256.0</v>
+        <v>1715.0</v>
       </c>
       <c r="C34" t="n">
-        <v>205.0</v>
+        <v>177.0</v>
       </c>
       <c r="D34" t="n">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="E34" t="n">
-        <v>371.0</v>
+        <v>571.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1862.0</v>
+        <v>2501.0</v>
       </c>
       <c r="B35" t="n">
-        <v>1414.0</v>
+        <v>1832.0</v>
       </c>
       <c r="C35" t="n">
-        <v>225.0</v>
+        <v>200.0</v>
       </c>
       <c r="D35" t="n">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="E35" t="n">
-        <v>438.0</v>
+        <v>653.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2101.0</v>
+        <v>2711.0</v>
       </c>
       <c r="B36" t="n">
-        <v>1594.0</v>
+        <v>1942.0</v>
       </c>
       <c r="C36" t="n">
-        <v>239.0</v>
+        <v>210.0</v>
       </c>
       <c r="D36" t="n">
-        <v>11.0</v>
+        <v>18.0</v>
       </c>
       <c r="E36" t="n">
-        <v>496.0</v>
+        <v>751.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2392.0</v>
+        <v>2922.0</v>
       </c>
       <c r="B37" t="n">
-        <v>1811.0</v>
+        <v>2061.0</v>
       </c>
       <c r="C37" t="n">
-        <v>291.0</v>
+        <v>211.0</v>
       </c>
       <c r="D37" t="n">
-        <v>12.0</v>
+        <v>19.0</v>
       </c>
       <c r="E37" t="n">
-        <v>569.0</v>
+        <v>842.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2704.0</v>
+        <v>3165.0</v>
       </c>
       <c r="B38" t="n">
-        <v>2034.0</v>
+        <v>2197.0</v>
       </c>
       <c r="C38" t="n">
-        <v>312.0</v>
+        <v>243.0</v>
       </c>
       <c r="D38" t="n">
-        <v>14.0</v>
+        <v>23.0</v>
       </c>
       <c r="E38" t="n">
-        <v>656.0</v>
+        <v>945.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3024.0</v>
+        <v>3439.0</v>
       </c>
       <c r="B39" t="n">
-        <v>2252.0</v>
+        <v>2360.0</v>
       </c>
       <c r="C39" t="n">
-        <v>320.0</v>
+        <v>274.0</v>
       </c>
       <c r="D39" t="n">
-        <v>16.0</v>
+        <v>25.0</v>
       </c>
       <c r="E39" t="n">
-        <v>756.0</v>
+        <v>1054.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3390.0</v>
+        <v>3715.0</v>
       </c>
       <c r="B40" t="n">
-        <v>2488.0</v>
+        <v>2505.0</v>
       </c>
       <c r="C40" t="n">
-        <v>366.0</v>
+        <v>276.0</v>
       </c>
       <c r="D40" t="n">
-        <v>18.0</v>
+        <v>25.0</v>
       </c>
       <c r="E40" t="n">
-        <v>884.0</v>
+        <v>1185.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3804.0</v>
+        <v>4031.0</v>
       </c>
       <c r="B41" t="n">
-        <v>2782.0</v>
+        <v>2699.0</v>
       </c>
       <c r="C41" t="n">
-        <v>414.0</v>
+        <v>316.0</v>
       </c>
       <c r="D41" t="n">
-        <v>19.0</v>
+        <v>28.0</v>
       </c>
       <c r="E41" t="n">
-        <v>1003.0</v>
+        <v>1304.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4306.0</v>
+        <v>4352.0</v>
       </c>
       <c r="B42" t="n">
-        <v>3164.0</v>
+        <v>2904.0</v>
       </c>
       <c r="C42" t="n">
-        <v>502.0</v>
+        <v>321.0</v>
       </c>
       <c r="D42" t="n">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="E42" t="n">
-        <v>1122.0</v>
+        <v>1418.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4799.0</v>
+        <v>4717.0</v>
       </c>
       <c r="B43" t="n">
-        <v>3527.0</v>
+        <v>3119.0</v>
       </c>
       <c r="C43" t="n">
-        <v>493.0</v>
+        <v>365.0</v>
       </c>
       <c r="D43" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="E43" t="n">
-        <v>1247.0</v>
+        <v>1567.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5340.0</v>
+        <v>5124.0</v>
       </c>
       <c r="B44" t="n">
-        <v>3910.0</v>
+        <v>3376.0</v>
       </c>
       <c r="C44" t="n">
-        <v>541.0</v>
+        <v>407.0</v>
       </c>
       <c r="D44" t="n">
-        <v>27.0</v>
+        <v>31.0</v>
       </c>
       <c r="E44" t="n">
-        <v>1403.0</v>
+        <v>1717.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5980.0</v>
+        <v>5504.0</v>
       </c>
       <c r="B45" t="n">
-        <v>4350.0</v>
+        <v>3589.0</v>
       </c>
       <c r="C45" t="n">
-        <v>640.0</v>
+        <v>380.0</v>
       </c>
       <c r="D45" t="n">
-        <v>31.0</v>
+        <v>35.0</v>
       </c>
       <c r="E45" t="n">
-        <v>1599.0</v>
+        <v>1880.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6708.0</v>
+        <v>5965.0</v>
       </c>
       <c r="B46" t="n">
-        <v>4885.0</v>
+        <v>3870.0</v>
       </c>
       <c r="C46" t="n">
-        <v>728.0</v>
+        <v>461.0</v>
       </c>
       <c r="D46" t="n">
-        <v>36.0</v>
+        <v>40.0</v>
       </c>
       <c r="E46" t="n">
-        <v>1787.0</v>
+        <v>2055.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>7461.0</v>
+        <v>6422.0</v>
       </c>
       <c r="B47" t="n">
-        <v>5403.0</v>
+        <v>4128.0</v>
       </c>
       <c r="C47" t="n">
-        <v>753.0</v>
+        <v>457.0</v>
       </c>
       <c r="D47" t="n">
-        <v>39.0</v>
+        <v>44.0</v>
       </c>
       <c r="E47" t="n">
-        <v>2019.0</v>
+        <v>2250.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>8328.0</v>
+        <v>6918.0</v>
       </c>
       <c r="B48" t="n">
-        <v>5996.0</v>
+        <v>4423.0</v>
       </c>
       <c r="C48" t="n">
-        <v>867.0</v>
+        <v>496.0</v>
       </c>
       <c r="D48" t="n">
-        <v>43.0</v>
+        <v>48.0</v>
       </c>
       <c r="E48" t="n">
-        <v>2289.0</v>
+        <v>2447.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>9203.0</v>
+        <v>7438.0</v>
       </c>
       <c r="B49" t="n">
-        <v>6597.0</v>
+        <v>4729.0</v>
       </c>
       <c r="C49" t="n">
-        <v>875.0</v>
+        <v>520.0</v>
       </c>
       <c r="D49" t="n">
         <v>50.0</v>
       </c>
       <c r="E49" t="n">
-        <v>2556.0</v>
+        <v>2659.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>10204.0</v>
+        <v>7995.0</v>
       </c>
       <c r="B50" t="n">
-        <v>7292.0</v>
+        <v>5077.0</v>
       </c>
       <c r="C50" t="n">
-        <v>1001.0</v>
+        <v>557.0</v>
       </c>
       <c r="D50" t="n">
-        <v>56.0</v>
+        <v>53.0</v>
       </c>
       <c r="E50" t="n">
-        <v>2856.0</v>
+        <v>2865.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>11331.0</v>
+        <v>8664.0</v>
       </c>
       <c r="B51" t="n">
-        <v>8071.0</v>
+        <v>5481.0</v>
       </c>
       <c r="C51" t="n">
-        <v>1127.0</v>
+        <v>669.0</v>
       </c>
       <c r="D51" t="n">
         <v>60.0</v>
       </c>
       <c r="E51" t="n">
-        <v>3200.0</v>
+        <v>3123.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>12606.0</v>
+        <v>9348.0</v>
       </c>
       <c r="B52" t="n">
-        <v>8949.0</v>
+        <v>5891.0</v>
       </c>
       <c r="C52" t="n">
-        <v>1275.0</v>
+        <v>684.0</v>
       </c>
       <c r="D52" t="n">
-        <v>68.0</v>
+        <v>67.0</v>
       </c>
       <c r="E52" t="n">
-        <v>3589.0</v>
+        <v>3390.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>13891.0</v>
+        <v>10061.0</v>
       </c>
       <c r="B53" t="n">
-        <v>9744.0</v>
+        <v>6317.0</v>
       </c>
       <c r="C53" t="n">
-        <v>1285.0</v>
+        <v>713.0</v>
       </c>
       <c r="D53" t="n">
-        <v>79.0</v>
+        <v>74.0</v>
       </c>
       <c r="E53" t="n">
-        <v>4068.0</v>
+        <v>3670.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>15340.0</v>
+        <v>10886.0</v>
       </c>
       <c r="B54" t="n">
-        <v>10685.0</v>
+        <v>6816.0</v>
       </c>
       <c r="C54" t="n">
-        <v>1449.0</v>
+        <v>825.0</v>
       </c>
       <c r="D54" t="n">
-        <v>84.0</v>
+        <v>77.0</v>
       </c>
       <c r="E54" t="n">
-        <v>4571.0</v>
+        <v>3993.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>16921.0</v>
+        <v>11798.0</v>
       </c>
       <c r="B55" t="n">
-        <v>11739.0</v>
+        <v>7408.0</v>
       </c>
       <c r="C55" t="n">
-        <v>1581.0</v>
+        <v>912.0</v>
       </c>
       <c r="D55" t="n">
-        <v>90.0</v>
+        <v>80.0</v>
       </c>
       <c r="E55" t="n">
-        <v>5092.0</v>
+        <v>4310.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>18682.0</v>
+        <v>12678.0</v>
       </c>
       <c r="B56" t="n">
-        <v>12896.0</v>
+        <v>7916.0</v>
       </c>
       <c r="C56" t="n">
-        <v>1761.0</v>
+        <v>880.0</v>
       </c>
       <c r="D56" t="n">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
       <c r="E56" t="n">
-        <v>5686.0</v>
+        <v>4675.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>20571.0</v>
+        <v>13666.0</v>
       </c>
       <c r="B57" t="n">
-        <v>14091.0</v>
+        <v>8476.0</v>
       </c>
       <c r="C57" t="n">
-        <v>1889.0</v>
+        <v>988.0</v>
       </c>
       <c r="D57" t="n">
-        <v>109.0</v>
+        <v>95.0</v>
       </c>
       <c r="E57" t="n">
-        <v>6371.0</v>
+        <v>5095.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>22554.0</v>
+        <v>14678.0</v>
       </c>
       <c r="B58" t="n">
-        <v>15373.0</v>
+        <v>9085.0</v>
       </c>
       <c r="C58" t="n">
-        <v>1983.0</v>
+        <v>1012.0</v>
       </c>
       <c r="D58" t="n">
-        <v>124.0</v>
+        <v>100.0</v>
       </c>
       <c r="E58" t="n">
-        <v>7057.0</v>
+        <v>5493.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>24707.0</v>
+        <v>15737.0</v>
       </c>
       <c r="B59" t="n">
-        <v>16731.0</v>
+        <v>9680.0</v>
       </c>
       <c r="C59" t="n">
-        <v>2153.0</v>
+        <v>1059.0</v>
       </c>
       <c r="D59" t="n">
-        <v>132.0</v>
+        <v>106.0</v>
       </c>
       <c r="E59" t="n">
-        <v>7844.0</v>
+        <v>5951.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>27148.0</v>
+        <v>16891.0</v>
       </c>
       <c r="B60" t="n">
-        <v>18290.0</v>
+        <v>10328.0</v>
       </c>
       <c r="C60" t="n">
-        <v>2441.0</v>
+        <v>1154.0</v>
       </c>
       <c r="D60" t="n">
-        <v>146.0</v>
+        <v>119.0</v>
       </c>
       <c r="E60" t="n">
-        <v>8712.0</v>
+        <v>6444.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>29762.0</v>
+        <v>18177.0</v>
       </c>
       <c r="B61" t="n">
-        <v>19881.0</v>
+        <v>11078.0</v>
       </c>
       <c r="C61" t="n">
-        <v>2614.0</v>
+        <v>1286.0</v>
       </c>
       <c r="D61" t="n">
-        <v>161.0</v>
+        <v>132.0</v>
       </c>
       <c r="E61" t="n">
-        <v>9720.0</v>
+        <v>6967.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>32551.0</v>
+        <v>19542.0</v>
       </c>
       <c r="B62" t="n">
-        <v>21591.0</v>
+        <v>11904.0</v>
       </c>
       <c r="C62" t="n">
-        <v>2789.0</v>
+        <v>1365.0</v>
       </c>
       <c r="D62" t="n">
-        <v>176.0</v>
+        <v>147.0</v>
       </c>
       <c r="E62" t="n">
-        <v>10784.0</v>
+        <v>7491.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/output/results4.xlsx
+++ b/src/output/results4.xlsx
@@ -336,7 +336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="G60" sqref="G60"/>
@@ -346,13 +346,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>82.0</v>
+        <v>303.0</v>
       </c>
       <c r="B1" t="n">
-        <v>82.0</v>
+        <v>303.0</v>
       </c>
       <c r="C1" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D1" t="n">
         <v>0.0</v>
@@ -363,13 +363,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>86.0</v>
+        <v>314.0</v>
       </c>
       <c r="B2" t="n">
-        <v>86.0</v>
+        <v>314.0</v>
       </c>
       <c r="C2" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="D2" t="n">
         <v>0.0</v>
@@ -380,13 +380,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>87.0</v>
+        <v>334.0</v>
       </c>
       <c r="B3" t="n">
-        <v>87.0</v>
+        <v>334.0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>20.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
@@ -397,13 +397,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>89.0</v>
+        <v>356.0</v>
       </c>
       <c r="B4" t="n">
-        <v>89.0</v>
+        <v>356.0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>22.0</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
@@ -414,163 +414,163 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>100.0</v>
+        <v>383.0</v>
       </c>
       <c r="B5" t="n">
-        <v>100.0</v>
+        <v>382.0</v>
       </c>
       <c r="C5" t="n">
-        <v>11.0</v>
+        <v>27.0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111.0</v>
+        <v>426.0</v>
       </c>
       <c r="B6" t="n">
-        <v>111.0</v>
+        <v>424.0</v>
       </c>
       <c r="C6" t="n">
-        <v>11.0</v>
+        <v>43.0</v>
       </c>
       <c r="D6" t="n">
         <v>0.0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>122.0</v>
+        <v>463.0</v>
       </c>
       <c r="B7" t="n">
-        <v>122.0</v>
+        <v>460.0</v>
       </c>
       <c r="C7" t="n">
-        <v>11.0</v>
+        <v>37.0</v>
       </c>
       <c r="D7" t="n">
         <v>0.0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>132.0</v>
+        <v>499.0</v>
       </c>
       <c r="B8" t="n">
-        <v>132.0</v>
+        <v>495.0</v>
       </c>
       <c r="C8" t="n">
-        <v>10.0</v>
+        <v>36.0</v>
       </c>
       <c r="D8" t="n">
         <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>144.0</v>
+        <v>527.0</v>
       </c>
       <c r="B9" t="n">
-        <v>144.0</v>
+        <v>520.0</v>
       </c>
       <c r="C9" t="n">
-        <v>12.0</v>
+        <v>28.0</v>
       </c>
       <c r="D9" t="n">
         <v>0.0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>165.0</v>
+        <v>567.0</v>
       </c>
       <c r="B10" t="n">
-        <v>165.0</v>
+        <v>558.0</v>
       </c>
       <c r="C10" t="n">
-        <v>21.0</v>
+        <v>40.0</v>
       </c>
       <c r="D10" t="n">
         <v>0.0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>175.0</v>
+        <v>601.0</v>
       </c>
       <c r="B11" t="n">
-        <v>175.0</v>
+        <v>587.0</v>
       </c>
       <c r="C11" t="n">
-        <v>10.0</v>
+        <v>34.0</v>
       </c>
       <c r="D11" t="n">
         <v>0.0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>192.0</v>
+        <v>635.0</v>
       </c>
       <c r="B12" t="n">
-        <v>191.0</v>
+        <v>612.0</v>
       </c>
       <c r="C12" t="n">
-        <v>17.0</v>
+        <v>34.0</v>
       </c>
       <c r="D12" t="n">
         <v>0.0</v>
       </c>
       <c r="E12" t="n">
-        <v>1.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>219.0</v>
+        <v>689.0</v>
       </c>
       <c r="B13" t="n">
-        <v>217.0</v>
+        <v>652.0</v>
       </c>
       <c r="C13" t="n">
-        <v>27.0</v>
+        <v>54.0</v>
       </c>
       <c r="D13" t="n">
         <v>0.0</v>
       </c>
       <c r="E13" t="n">
-        <v>2.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>253.0</v>
+        <v>723.0</v>
       </c>
       <c r="B14" t="n">
-        <v>248.0</v>
+        <v>680.0</v>
       </c>
       <c r="C14" t="n">
         <v>34.0</v>
@@ -579,531 +579,531 @@
         <v>0.0</v>
       </c>
       <c r="E14" t="n">
-        <v>5.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>291.0</v>
+        <v>770.0</v>
       </c>
       <c r="B15" t="n">
-        <v>282.0</v>
+        <v>710.0</v>
       </c>
       <c r="C15" t="n">
-        <v>38.0</v>
+        <v>47.0</v>
       </c>
       <c r="D15" t="n">
         <v>0.0</v>
       </c>
       <c r="E15" t="n">
-        <v>9.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>333.0</v>
+        <v>828.0</v>
       </c>
       <c r="B16" t="n">
-        <v>321.0</v>
+        <v>756.0</v>
       </c>
       <c r="C16" t="n">
-        <v>42.0</v>
+        <v>58.0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E16" t="n">
-        <v>11.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>379.0</v>
+        <v>907.0</v>
       </c>
       <c r="B17" t="n">
-        <v>359.0</v>
+        <v>813.0</v>
       </c>
       <c r="C17" t="n">
-        <v>46.0</v>
+        <v>79.0</v>
       </c>
       <c r="D17" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E17" t="n">
-        <v>18.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>419.0</v>
+        <v>974.0</v>
       </c>
       <c r="B18" t="n">
-        <v>386.0</v>
+        <v>855.0</v>
       </c>
       <c r="C18" t="n">
-        <v>40.0</v>
+        <v>67.0</v>
       </c>
       <c r="D18" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E18" t="n">
-        <v>31.0</v>
+        <v>119.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>474.0</v>
+        <v>1038.0</v>
       </c>
       <c r="B19" t="n">
-        <v>431.0</v>
+        <v>898.0</v>
       </c>
       <c r="C19" t="n">
-        <v>55.0</v>
+        <v>64.0</v>
       </c>
       <c r="D19" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E19" t="n">
-        <v>40.0</v>
+        <v>139.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>545.0</v>
+        <v>1114.0</v>
       </c>
       <c r="B20" t="n">
-        <v>491.0</v>
+        <v>934.0</v>
       </c>
       <c r="C20" t="n">
-        <v>71.0</v>
+        <v>76.0</v>
       </c>
       <c r="D20" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E20" t="n">
-        <v>50.0</v>
+        <v>179.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>607.0</v>
+        <v>1188.0</v>
       </c>
       <c r="B21" t="n">
-        <v>541.0</v>
+        <v>979.0</v>
       </c>
       <c r="C21" t="n">
-        <v>62.0</v>
+        <v>74.0</v>
       </c>
       <c r="D21" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E21" t="n">
-        <v>62.0</v>
+        <v>208.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>709.0</v>
+        <v>1258.0</v>
       </c>
       <c r="B22" t="n">
-        <v>625.0</v>
+        <v>1023.0</v>
       </c>
       <c r="C22" t="n">
-        <v>102.0</v>
+        <v>70.0</v>
       </c>
       <c r="D22" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E22" t="n">
-        <v>80.0</v>
+        <v>234.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>820.0</v>
+        <v>1334.0</v>
       </c>
       <c r="B23" t="n">
-        <v>717.0</v>
+        <v>1065.0</v>
       </c>
       <c r="C23" t="n">
-        <v>111.0</v>
+        <v>76.0</v>
       </c>
       <c r="D23" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="E23" t="n">
-        <v>97.0</v>
+        <v>268.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>906.0</v>
+        <v>1421.0</v>
       </c>
       <c r="B24" t="n">
-        <v>776.0</v>
+        <v>1111.0</v>
       </c>
       <c r="C24" t="n">
-        <v>86.0</v>
+        <v>87.0</v>
       </c>
       <c r="D24" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="E24" t="n">
-        <v>122.0</v>
+        <v>307.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1012.0</v>
+        <v>1518.0</v>
       </c>
       <c r="B25" t="n">
-        <v>859.0</v>
+        <v>1156.0</v>
       </c>
       <c r="C25" t="n">
-        <v>106.0</v>
+        <v>97.0</v>
       </c>
       <c r="D25" t="n">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="E25" t="n">
-        <v>142.0</v>
+        <v>358.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1132.0</v>
+        <v>1606.0</v>
       </c>
       <c r="B26" t="n">
-        <v>958.0</v>
+        <v>1196.0</v>
       </c>
       <c r="C26" t="n">
-        <v>120.0</v>
+        <v>88.0</v>
       </c>
       <c r="D26" t="n">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="E26" t="n">
-        <v>163.0</v>
+        <v>406.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1239.0</v>
+        <v>1696.0</v>
       </c>
       <c r="B27" t="n">
-        <v>1023.0</v>
+        <v>1232.0</v>
       </c>
       <c r="C27" t="n">
-        <v>107.0</v>
+        <v>90.0</v>
       </c>
       <c r="D27" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="E27" t="n">
-        <v>205.0</v>
+        <v>459.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1371.0</v>
+        <v>1799.0</v>
       </c>
       <c r="B28" t="n">
-        <v>1115.0</v>
+        <v>1282.0</v>
       </c>
       <c r="C28" t="n">
-        <v>132.0</v>
+        <v>103.0</v>
       </c>
       <c r="D28" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="E28" t="n">
-        <v>245.0</v>
+        <v>511.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1505.0</v>
+        <v>1891.0</v>
       </c>
       <c r="B29" t="n">
-        <v>1207.0</v>
+        <v>1324.0</v>
       </c>
       <c r="C29" t="n">
-        <v>134.0</v>
+        <v>92.0</v>
       </c>
       <c r="D29" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="E29" t="n">
-        <v>287.0</v>
+        <v>558.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1638.0</v>
+        <v>1980.0</v>
       </c>
       <c r="B30" t="n">
-        <v>1303.0</v>
+        <v>1362.0</v>
       </c>
       <c r="C30" t="n">
-        <v>133.0</v>
+        <v>89.0</v>
       </c>
       <c r="D30" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="E30" t="n">
-        <v>323.0</v>
+        <v>609.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1795.0</v>
+        <v>2061.0</v>
       </c>
       <c r="B31" t="n">
-        <v>1402.0</v>
+        <v>1391.0</v>
       </c>
       <c r="C31" t="n">
-        <v>157.0</v>
+        <v>81.0</v>
       </c>
       <c r="D31" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="E31" t="n">
-        <v>381.0</v>
+        <v>660.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1945.0</v>
+        <v>2171.0</v>
       </c>
       <c r="B32" t="n">
-        <v>1481.0</v>
+        <v>1429.0</v>
       </c>
       <c r="C32" t="n">
-        <v>150.0</v>
+        <v>110.0</v>
       </c>
       <c r="D32" t="n">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="E32" t="n">
-        <v>451.0</v>
+        <v>732.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2124.0</v>
+        <v>2283.0</v>
       </c>
       <c r="B33" t="n">
-        <v>1600.0</v>
+        <v>1460.0</v>
       </c>
       <c r="C33" t="n">
-        <v>179.0</v>
+        <v>112.0</v>
       </c>
       <c r="D33" t="n">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="E33" t="n">
-        <v>510.0</v>
+        <v>812.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2301.0</v>
+        <v>2407.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1715.0</v>
+        <v>1502.0</v>
       </c>
       <c r="C34" t="n">
-        <v>177.0</v>
+        <v>124.0</v>
       </c>
       <c r="D34" t="n">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="E34" t="n">
-        <v>571.0</v>
+        <v>893.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2501.0</v>
+        <v>2542.0</v>
       </c>
       <c r="B35" t="n">
-        <v>1832.0</v>
+        <v>1560.0</v>
       </c>
       <c r="C35" t="n">
-        <v>200.0</v>
+        <v>135.0</v>
       </c>
       <c r="D35" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="E35" t="n">
-        <v>653.0</v>
+        <v>969.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2711.0</v>
+        <v>2688.0</v>
       </c>
       <c r="B36" t="n">
-        <v>1942.0</v>
+        <v>1642.0</v>
       </c>
       <c r="C36" t="n">
-        <v>210.0</v>
+        <v>146.0</v>
       </c>
       <c r="D36" t="n">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
       <c r="E36" t="n">
-        <v>751.0</v>
+        <v>1032.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2922.0</v>
+        <v>2830.0</v>
       </c>
       <c r="B37" t="n">
-        <v>2061.0</v>
+        <v>1711.0</v>
       </c>
       <c r="C37" t="n">
-        <v>211.0</v>
+        <v>142.0</v>
       </c>
       <c r="D37" t="n">
-        <v>19.0</v>
+        <v>16.0</v>
       </c>
       <c r="E37" t="n">
-        <v>842.0</v>
+        <v>1103.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3165.0</v>
+        <v>2974.0</v>
       </c>
       <c r="B38" t="n">
-        <v>2197.0</v>
+        <v>1777.0</v>
       </c>
       <c r="C38" t="n">
-        <v>243.0</v>
+        <v>144.0</v>
       </c>
       <c r="D38" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="E38" t="n">
-        <v>945.0</v>
+        <v>1180.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3439.0</v>
+        <v>3170.0</v>
       </c>
       <c r="B39" t="n">
-        <v>2360.0</v>
+        <v>1901.0</v>
       </c>
       <c r="C39" t="n">
-        <v>274.0</v>
+        <v>196.0</v>
       </c>
       <c r="D39" t="n">
-        <v>25.0</v>
+        <v>17.0</v>
       </c>
       <c r="E39" t="n">
-        <v>1054.0</v>
+        <v>1252.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3715.0</v>
+        <v>3361.0</v>
       </c>
       <c r="B40" t="n">
-        <v>2505.0</v>
+        <v>1996.0</v>
       </c>
       <c r="C40" t="n">
-        <v>276.0</v>
+        <v>191.0</v>
       </c>
       <c r="D40" t="n">
-        <v>25.0</v>
+        <v>17.0</v>
       </c>
       <c r="E40" t="n">
-        <v>1185.0</v>
+        <v>1348.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4031.0</v>
+        <v>3572.0</v>
       </c>
       <c r="B41" t="n">
-        <v>2699.0</v>
+        <v>2118.0</v>
       </c>
       <c r="C41" t="n">
-        <v>316.0</v>
+        <v>211.0</v>
       </c>
       <c r="D41" t="n">
-        <v>28.0</v>
+        <v>17.0</v>
       </c>
       <c r="E41" t="n">
-        <v>1304.0</v>
+        <v>1437.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4352.0</v>
+        <v>3794.0</v>
       </c>
       <c r="B42" t="n">
-        <v>2904.0</v>
+        <v>2253.0</v>
       </c>
       <c r="C42" t="n">
-        <v>321.0</v>
+        <v>222.0</v>
       </c>
       <c r="D42" t="n">
-        <v>30.0</v>
+        <v>17.0</v>
       </c>
       <c r="E42" t="n">
-        <v>1418.0</v>
+        <v>1524.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4717.0</v>
+        <v>4018.0</v>
       </c>
       <c r="B43" t="n">
-        <v>3119.0</v>
+        <v>2352.0</v>
       </c>
       <c r="C43" t="n">
-        <v>365.0</v>
+        <v>224.0</v>
       </c>
       <c r="D43" t="n">
-        <v>31.0</v>
+        <v>18.0</v>
       </c>
       <c r="E43" t="n">
-        <v>1567.0</v>
+        <v>1648.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5124.0</v>
+        <v>4270.0</v>
       </c>
       <c r="B44" t="n">
-        <v>3376.0</v>
+        <v>2484.0</v>
       </c>
       <c r="C44" t="n">
-        <v>407.0</v>
+        <v>252.0</v>
       </c>
       <c r="D44" t="n">
-        <v>31.0</v>
+        <v>19.0</v>
       </c>
       <c r="E44" t="n">
-        <v>1717.0</v>
+        <v>1767.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5504.0</v>
+        <v>4549.0</v>
       </c>
       <c r="B45" t="n">
-        <v>3589.0</v>
+        <v>2650.0</v>
       </c>
       <c r="C45" t="n">
-        <v>380.0</v>
+        <v>279.0</v>
       </c>
       <c r="D45" t="n">
-        <v>35.0</v>
+        <v>19.0</v>
       </c>
       <c r="E45" t="n">
         <v>1880.0</v>
@@ -1111,291 +1111,1600 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5965.0</v>
+        <v>4853.0</v>
       </c>
       <c r="B46" t="n">
-        <v>3870.0</v>
+        <v>2828.0</v>
       </c>
       <c r="C46" t="n">
-        <v>461.0</v>
+        <v>304.0</v>
       </c>
       <c r="D46" t="n">
-        <v>40.0</v>
+        <v>19.0</v>
       </c>
       <c r="E46" t="n">
-        <v>2055.0</v>
+        <v>2006.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6422.0</v>
+        <v>5159.0</v>
       </c>
       <c r="B47" t="n">
-        <v>4128.0</v>
+        <v>3006.0</v>
       </c>
       <c r="C47" t="n">
-        <v>457.0</v>
+        <v>306.0</v>
       </c>
       <c r="D47" t="n">
-        <v>44.0</v>
+        <v>21.0</v>
       </c>
       <c r="E47" t="n">
-        <v>2250.0</v>
+        <v>2132.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6918.0</v>
+        <v>5506.0</v>
       </c>
       <c r="B48" t="n">
-        <v>4423.0</v>
+        <v>3219.0</v>
       </c>
       <c r="C48" t="n">
-        <v>496.0</v>
+        <v>347.0</v>
       </c>
       <c r="D48" t="n">
-        <v>48.0</v>
+        <v>21.0</v>
       </c>
       <c r="E48" t="n">
-        <v>2447.0</v>
+        <v>2266.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>7438.0</v>
+        <v>5895.0</v>
       </c>
       <c r="B49" t="n">
-        <v>4729.0</v>
+        <v>3469.0</v>
       </c>
       <c r="C49" t="n">
-        <v>520.0</v>
+        <v>389.0</v>
       </c>
       <c r="D49" t="n">
-        <v>50.0</v>
+        <v>22.0</v>
       </c>
       <c r="E49" t="n">
-        <v>2659.0</v>
+        <v>2404.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>7995.0</v>
+        <v>6294.0</v>
       </c>
       <c r="B50" t="n">
-        <v>5077.0</v>
+        <v>3714.0</v>
       </c>
       <c r="C50" t="n">
-        <v>557.0</v>
+        <v>399.0</v>
       </c>
       <c r="D50" t="n">
-        <v>53.0</v>
+        <v>22.0</v>
       </c>
       <c r="E50" t="n">
-        <v>2865.0</v>
+        <v>2558.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>8664.0</v>
+        <v>6730.0</v>
       </c>
       <c r="B51" t="n">
-        <v>5481.0</v>
+        <v>3975.0</v>
       </c>
       <c r="C51" t="n">
-        <v>669.0</v>
+        <v>436.0</v>
       </c>
       <c r="D51" t="n">
-        <v>60.0</v>
+        <v>23.0</v>
       </c>
       <c r="E51" t="n">
-        <v>3123.0</v>
+        <v>2732.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9348.0</v>
+        <v>7187.0</v>
       </c>
       <c r="B52" t="n">
-        <v>5891.0</v>
+        <v>4242.0</v>
       </c>
       <c r="C52" t="n">
-        <v>684.0</v>
+        <v>457.0</v>
       </c>
       <c r="D52" t="n">
-        <v>67.0</v>
+        <v>25.0</v>
       </c>
       <c r="E52" t="n">
-        <v>3390.0</v>
+        <v>2920.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>10061.0</v>
+        <v>7709.0</v>
       </c>
       <c r="B53" t="n">
-        <v>6317.0</v>
+        <v>4557.0</v>
       </c>
       <c r="C53" t="n">
-        <v>713.0</v>
+        <v>522.0</v>
       </c>
       <c r="D53" t="n">
-        <v>74.0</v>
+        <v>27.0</v>
       </c>
       <c r="E53" t="n">
-        <v>3670.0</v>
+        <v>3125.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>10886.0</v>
+        <v>8204.0</v>
       </c>
       <c r="B54" t="n">
-        <v>6816.0</v>
+        <v>4825.0</v>
       </c>
       <c r="C54" t="n">
-        <v>825.0</v>
+        <v>495.0</v>
       </c>
       <c r="D54" t="n">
-        <v>77.0</v>
+        <v>31.0</v>
       </c>
       <c r="E54" t="n">
-        <v>3993.0</v>
+        <v>3348.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>11798.0</v>
+        <v>8774.0</v>
       </c>
       <c r="B55" t="n">
-        <v>7408.0</v>
+        <v>5186.0</v>
       </c>
       <c r="C55" t="n">
-        <v>912.0</v>
+        <v>570.0</v>
       </c>
       <c r="D55" t="n">
-        <v>80.0</v>
+        <v>33.0</v>
       </c>
       <c r="E55" t="n">
-        <v>4310.0</v>
+        <v>3555.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>12678.0</v>
+        <v>9350.0</v>
       </c>
       <c r="B56" t="n">
-        <v>7916.0</v>
+        <v>5535.0</v>
       </c>
       <c r="C56" t="n">
-        <v>880.0</v>
+        <v>576.0</v>
       </c>
       <c r="D56" t="n">
-        <v>87.0</v>
+        <v>34.0</v>
       </c>
       <c r="E56" t="n">
-        <v>4675.0</v>
+        <v>3781.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>13666.0</v>
+        <v>9966.0</v>
       </c>
       <c r="B57" t="n">
-        <v>8476.0</v>
+        <v>5903.0</v>
       </c>
       <c r="C57" t="n">
-        <v>988.0</v>
+        <v>616.0</v>
       </c>
       <c r="D57" t="n">
-        <v>95.0</v>
+        <v>37.0</v>
       </c>
       <c r="E57" t="n">
-        <v>5095.0</v>
+        <v>4026.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>14678.0</v>
+        <v>10653.0</v>
       </c>
       <c r="B58" t="n">
-        <v>9085.0</v>
+        <v>6306.0</v>
       </c>
       <c r="C58" t="n">
-        <v>1012.0</v>
+        <v>687.0</v>
       </c>
       <c r="D58" t="n">
-        <v>100.0</v>
+        <v>38.0</v>
       </c>
       <c r="E58" t="n">
-        <v>5493.0</v>
+        <v>4309.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>15737.0</v>
+        <v>11356.0</v>
       </c>
       <c r="B59" t="n">
-        <v>9680.0</v>
+        <v>6715.0</v>
       </c>
       <c r="C59" t="n">
-        <v>1059.0</v>
+        <v>703.0</v>
       </c>
       <c r="D59" t="n">
-        <v>106.0</v>
+        <v>40.0</v>
       </c>
       <c r="E59" t="n">
-        <v>5951.0</v>
+        <v>4601.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>16891.0</v>
+        <v>12082.0</v>
       </c>
       <c r="B60" t="n">
-        <v>10328.0</v>
+        <v>7148.0</v>
       </c>
       <c r="C60" t="n">
-        <v>1154.0</v>
+        <v>726.0</v>
       </c>
       <c r="D60" t="n">
-        <v>119.0</v>
+        <v>43.0</v>
       </c>
       <c r="E60" t="n">
-        <v>6444.0</v>
+        <v>4891.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>18177.0</v>
+        <v>12897.0</v>
       </c>
       <c r="B61" t="n">
-        <v>11078.0</v>
+        <v>7583.0</v>
       </c>
       <c r="C61" t="n">
-        <v>1286.0</v>
+        <v>815.0</v>
       </c>
       <c r="D61" t="n">
-        <v>132.0</v>
+        <v>44.0</v>
       </c>
       <c r="E61" t="n">
-        <v>6967.0</v>
+        <v>5270.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>19542.0</v>
+        <v>13725.0</v>
       </c>
       <c r="B62" t="n">
-        <v>11904.0</v>
+        <v>8018.0</v>
       </c>
       <c r="C62" t="n">
-        <v>1365.0</v>
+        <v>828.0</v>
       </c>
       <c r="D62" t="n">
-        <v>147.0</v>
+        <v>44.0</v>
       </c>
       <c r="E62" t="n">
-        <v>7491.0</v>
+        <v>5663.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>14603.0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>8490.0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>878.0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>6067.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>15563.0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>9037.0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>960.0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>6475.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>16511.0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>9519.0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>948.0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>6936.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>17536.0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>10036.0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1025.0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>7438.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>10584.0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>5779.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>585.0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>4728.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>11188.0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>6044.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>5062.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>11865.0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>6401.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>677.0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>5380.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>12542.0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>6732.0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>677.0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>5719.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>13240.0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>7046.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>698.0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>6100.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>14047.0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>7483.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>807.0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>6466.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>14857.0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>7878.0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>810.0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>6871.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>15662.0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>8277.0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>805.0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>7266.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>16565.0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>8689.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>903.0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>7744.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>17468.0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>9125.0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>903.0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>8205.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>18440.0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>9581.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>972.0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>8719.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>19447.0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>10076.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1007.0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>9222.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>20504.0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>10592.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1057.0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>9755.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>21664.0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>11138.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1160.0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>10363.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>22882.0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>11753.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1218.0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>10953.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>24182.0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>12355.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1300.0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>11638.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>25517.0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>12989.0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1335.0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>12328.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>26895.0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>13679.0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1378.0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>212.0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>13004.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>28373.0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>14385.0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1478.0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>13762.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>29901.0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>15030.0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1528.0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>235.0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>14636.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>31489.0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>15876.0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1588.0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>242.0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>15371.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>33166.0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>16644.0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1677.0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>262.0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>16260.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>34857.0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>17378.0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1691.0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>278.0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>17201.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>36740.0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>18286.0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1883.0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>287.0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>18167.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>38690.0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>19238.0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>303.0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>19149.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>40658.0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>20125.0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1968.0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>314.0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>20219.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>42705.0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>21042.0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2047.0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>336.0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>21327.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>44813.0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>21909.0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2108.0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>22544.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>47058.0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>22948.0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2245.0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>378.0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>23732.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>49316.0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>23825.0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2258.0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>25093.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>51644.0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>24693.0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2328.0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>414.0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>26537.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>54060.0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>25649.0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2416.0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>437.0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>27974.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>56457.0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>26554.0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2397.0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>462.0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>29441.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>58868.0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>27458.0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2411.0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>494.0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>30916.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>61413.0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>28324.0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2545.0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>510.0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>32579.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>63873.0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>29059.0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2460.0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>526.0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>34288.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>66493.0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>29849.0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2620.0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>556.0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>36088.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>69026.0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>30512.0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2533.0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>577.0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>37937.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>71717.0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>31257.0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2691.0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>602.0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>39858.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>74456.0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>31900.0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2739.0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>634.0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>41922.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>77305.0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>32712.0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2849.0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>659.0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>43934.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>80121.0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>33414.0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2816.0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>700.0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>46007.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>83040.0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>34141.0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2919.0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>726.0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>48173.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>86067.0</v>
+      </c>
+      <c r="B110" t="n">
+        <v>34909.0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>3027.0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>761.0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>50397.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>89159.0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>35697.0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>3092.0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>799.0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>52663.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>92367.0</v>
+      </c>
+      <c r="B112" t="n">
+        <v>36536.0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>3208.0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>823.0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>55008.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>95644.0</v>
+      </c>
+      <c r="B113" t="n">
+        <v>37376.0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>3277.0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>848.0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>57420.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>98900.0</v>
+      </c>
+      <c r="B114" t="n">
+        <v>38243.0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>3256.0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>885.0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>59772.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>102306.0</v>
+      </c>
+      <c r="B115" t="n">
+        <v>39133.0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>3406.0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>909.0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>62264.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>105864.0</v>
+      </c>
+      <c r="B116" t="n">
+        <v>40163.0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>3558.0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>947.0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>64754.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>109486.0</v>
+      </c>
+      <c r="B117" t="n">
+        <v>41205.0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>3622.0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>988.0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>67293.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>113132.0</v>
+      </c>
+      <c r="B118" t="n">
+        <v>42179.0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>3646.0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1033.0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>69920.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>116829.0</v>
+      </c>
+      <c r="B119" t="n">
+        <v>43130.0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>3697.0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1081.0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>72618.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>120608.0</v>
+      </c>
+      <c r="B120" t="n">
+        <v>44176.0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>3779.0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1119.0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>75313.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>124432.0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>45173.0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>3824.0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1175.0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>78084.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>128386.0</v>
+      </c>
+      <c r="B122" t="n">
+        <v>46152.0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>3954.0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1213.0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>81021.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>132447.0</v>
+      </c>
+      <c r="B123" t="n">
+        <v>47200.0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>4061.0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1250.0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>83997.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>136551.0</v>
+      </c>
+      <c r="B124" t="n">
+        <v>48212.0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>4104.0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1305.0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>87034.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>140707.0</v>
+      </c>
+      <c r="B125" t="n">
+        <v>49243.0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>4156.0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1346.0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>90118.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>144984.0</v>
+      </c>
+      <c r="B126" t="n">
+        <v>50313.0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>4277.0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1388.0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>93283.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>149305.0</v>
+      </c>
+      <c r="B127" t="n">
+        <v>51409.0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>4321.0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1448.0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>96448.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>153608.0</v>
+      </c>
+      <c r="B128" t="n">
+        <v>52244.0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>4303.0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1498.0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>99866.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>157982.0</v>
+      </c>
+      <c r="B129" t="n">
+        <v>53165.0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>4374.0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1552.0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>103265.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>162237.0</v>
+      </c>
+      <c r="B130" t="n">
+        <v>53895.0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>4255.0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1590.0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>106752.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>166654.0</v>
+      </c>
+      <c r="B131" t="n">
+        <v>54708.0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>4417.0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1646.0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>110300.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>171187.0</v>
+      </c>
+      <c r="B132" t="n">
+        <v>55462.0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>4533.0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1709.0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>114016.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>175600.0</v>
+      </c>
+      <c r="B133" t="n">
+        <v>56046.0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>4413.0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1763.0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>117791.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>180292.0</v>
+      </c>
+      <c r="B134" t="n">
+        <v>56884.0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>4692.0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1803.0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>121605.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>184812.0</v>
+      </c>
+      <c r="B135" t="n">
+        <v>57566.0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>4520.0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1853.0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>125393.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>189521.0</v>
+      </c>
+      <c r="B136" t="n">
+        <v>58311.0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>4709.0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1918.0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>129292.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>194101.0</v>
+      </c>
+      <c r="B137" t="n">
+        <v>58878.0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>4580.0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1975.0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>133248.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>198729.0</v>
+      </c>
+      <c r="B138" t="n">
+        <v>59343.0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>4628.0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>2034.0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>137352.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>203251.0</v>
+      </c>
+      <c r="B139" t="n">
+        <v>59695.0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>4522.0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>2092.0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>141464.0</v>
       </c>
     </row>
   </sheetData>
